--- a/biology/Médecine/Classe_ATC_A08/Classe_ATC_A08.xlsx
+++ b/biology/Médecine/Classe_ATC_A08/Classe_ATC_A08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A08, dénommée « Médicaments utilisés contre l'obésité, à l'exclusion des produits de régime », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA08[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
-Le liraglutide[3] et le semaglutide[4], également utilisé pour lutter contre l'obésité, sont classés sous la classe ATC A10BJ, en tant que médicaments réduisant la glycémie (hors insuline).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A08, dénommée « Médicaments utilisés contre l'obésité, à l'exclusion des produits de régime », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA08. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+Le liraglutide et le semaglutide, également utilisé pour lutter contre l'obésité, sont classés sous la classe ATC A10BJ, en tant que médicaments réduisant la glycémie (hors insuline).
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A08AA Produits antiobésité d'action centrale
-A08AA01 Phentermine
+          <t>A08AA Produits antiobésité d'action centrale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A08AA01 Phentermine
 A08AA02 Fenfluramine
 A08AA03 Amfépramone (diéthylpropion)
 A08AA04 Dexfenfluramine
@@ -527,13 +544,81 @@
 A08AA10 Sibutramine
 A08AA11 Lorcasérine
 A08AA56 Éphédrine, en association
-A08AA62 Bupropion et naltrexone
-A08AB Produits antiobésité d'action périphérique
-A08AB01 Orlistat
+A08AA62 Bupropion et naltrexone</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A08</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A08A Médicaments antiobésité, à l'exclusion des produits de régime</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A08AB Produits antiobésité d'action périphérique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A08AB01 Orlistat
 QA08AB90 Mitratapide
-QA08AB91 Dirlotapide
-A08AX Autres médicaments anti obésité
-A08AX01 Rimonabant</t>
+QA08AB91 Dirlotapide</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A08A Médicaments antiobésité, à l'exclusion des produits de régime</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A08AX Autres médicaments anti obésité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A08AX01 Rimonabant</t>
         </is>
       </c>
     </row>
